--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1463.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1463.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.329274866928704</v>
+        <v>1.135837078094482</v>
       </c>
       <c r="B1">
-        <v>1.565239973810927</v>
+        <v>2.832927465438843</v>
       </c>
       <c r="C1">
-        <v>2.037467734017209</v>
+        <v>3.880904674530029</v>
       </c>
       <c r="D1">
-        <v>3.720141889327524</v>
+        <v>3.709670305252075</v>
       </c>
       <c r="E1">
-        <v>1.03645304942354</v>
+        <v>1.226359367370605</v>
       </c>
     </row>
   </sheetData>
